--- a/test documentation/Check.xlsx
+++ b/test documentation/Check.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="169">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Низкий</t>
   </si>
   <si>
+    <t>Passed</t>
+  </si>
+  <si>
     <t>Экран авторизации</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>Возвращение на экран "Главная" с экрана "Заявки" через системную кнопку "Назад" после перехода по ссылке "Все новости"</t>
   </si>
   <si>
-    <t>Скролл блока на экране "Главная"</t>
-  </si>
-  <si>
     <t>Навигационная панель</t>
   </si>
   <si>
@@ -175,6 +175,9 @@
     <t>Сортировка новостей по убыванию/увеличению даты</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Переход на экран "Фильтровать Новости"</t>
   </si>
   <si>
@@ -187,9 +190,6 @@
     <t>Возвращение на экран "Новости" с экрана "Панель управления" через системную кнопку "Назад"</t>
   </si>
   <si>
-    <t>Скролл блока на экране "Новости"</t>
-  </si>
-  <si>
     <t>Экран "Фильтровать новости" и функция фильтрации новостей</t>
   </si>
   <si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Фильтрация новостей по дате, а не отрезку времени</t>
+  </si>
+  <si>
+    <t>Skipped</t>
   </si>
   <si>
     <t>Отображение заглушки при отсутствии новостей за период времени из фильтра</t>
@@ -308,9 +311,6 @@
     <t>Тап кнопки "Отмена" в окне подтверждения закрытия редактирования новости</t>
   </si>
   <si>
-    <t>Скролл блока на экране "Панель управления"</t>
-  </si>
-  <si>
     <t>Экран "Создание Новости". Проверка валидации полей и для экрана "Редактирование новости"</t>
   </si>
   <si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>Разворачивание/сворачивание элемента "цитата"</t>
-  </si>
-  <si>
-    <t>Скролл блока на экране "Тематические цитаты"</t>
   </si>
   <si>
     <t>Экран "О приложении"</t>
@@ -670,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -698,15 +695,15 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -727,26 +724,14 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1007,1778 +992,2038 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" s="13"/>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" s="14"/>
-      <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="10"/>
     </row>
     <row r="8">
       <c r="A8" s="13"/>
-      <c r="B8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="13"/>
-      <c r="B9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10"/>
     </row>
     <row r="10">
       <c r="A10" s="13"/>
-      <c r="B10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="13"/>
-      <c r="B11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12">
       <c r="A12" s="13"/>
-      <c r="B12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="13"/>
-      <c r="B13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="13"/>
-      <c r="B14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="13"/>
-      <c r="B15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" s="13"/>
-      <c r="B16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10"/>
     </row>
     <row r="17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16"/>
+      <c r="B18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="D18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" s="16"/>
       <c r="B19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="12"/>
     </row>
     <row r="20">
       <c r="A20" s="16"/>
       <c r="B20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="12"/>
     </row>
     <row r="21">
       <c r="A21" s="16"/>
       <c r="B21" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="10"/>
     </row>
     <row r="22">
       <c r="A22" s="16"/>
       <c r="B22" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10"/>
     </row>
     <row r="23">
       <c r="A23" s="16"/>
       <c r="B23" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="10"/>
     </row>
     <row r="24">
       <c r="A24" s="16"/>
       <c r="B24" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="10"/>
     </row>
     <row r="25">
       <c r="A25" s="16"/>
       <c r="B25" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="10"/>
     </row>
     <row r="26">
       <c r="A26" s="16"/>
       <c r="B26" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="16"/>
       <c r="B27" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="10"/>
     </row>
     <row r="28">
       <c r="A28" s="16"/>
       <c r="B28" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10"/>
     </row>
     <row r="29">
       <c r="A29" s="16"/>
       <c r="B29" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="16"/>
       <c r="B30" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="10"/>
     </row>
     <row r="31">
       <c r="A31" s="16"/>
       <c r="B31" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="10"/>
     </row>
     <row r="32">
       <c r="A32" s="16"/>
       <c r="B32" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="10"/>
     </row>
     <row r="33">
       <c r="A33" s="16"/>
       <c r="B33" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="10"/>
     </row>
     <row r="34">
       <c r="A34" s="16"/>
       <c r="B34" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="10"/>
     </row>
     <row r="35">
       <c r="A35" s="16"/>
       <c r="B35" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+        <v>47</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="10"/>
     </row>
     <row r="36">
       <c r="A36" s="16"/>
       <c r="B36" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="10"/>
     </row>
     <row r="37">
       <c r="A37" s="16"/>
       <c r="B37" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="10"/>
     </row>
     <row r="38">
-      <c r="A38" s="16"/>
+      <c r="A38" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="B38" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="10"/>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="A39" s="16"/>
       <c r="B39" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="10"/>
     </row>
     <row r="40">
       <c r="A40" s="16"/>
       <c r="B40" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="10"/>
     </row>
     <row r="41">
       <c r="A41" s="16"/>
       <c r="B41" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="10"/>
     </row>
     <row r="42">
       <c r="A42" s="16"/>
-      <c r="B42" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="B42" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="10"/>
     </row>
     <row r="43">
       <c r="A43" s="16"/>
-      <c r="B43" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="B43" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="10"/>
     </row>
     <row r="44">
-      <c r="A44" s="16"/>
-      <c r="B44" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="10"/>
     </row>
     <row r="45">
-      <c r="A45" s="16"/>
-      <c r="B45" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="A45" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="10"/>
     </row>
     <row r="46">
-      <c r="A46" s="19"/>
-      <c r="B46" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="10"/>
     </row>
     <row r="47">
-      <c r="A47" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="10"/>
     </row>
     <row r="48">
       <c r="A48" s="13"/>
-      <c r="B48" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="B48" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="10"/>
     </row>
     <row r="49">
       <c r="A49" s="13"/>
-      <c r="B49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="B49" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="10"/>
     </row>
     <row r="50">
       <c r="A50" s="13"/>
-      <c r="B50" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="B50" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="10"/>
     </row>
     <row r="51">
       <c r="A51" s="13"/>
-      <c r="B51" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
+      <c r="B51" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="10"/>
     </row>
     <row r="52">
       <c r="A52" s="13"/>
-      <c r="B52" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
+      <c r="B52" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="10"/>
     </row>
     <row r="53">
       <c r="A53" s="13"/>
-      <c r="B53" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="B53" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="10"/>
     </row>
     <row r="54">
       <c r="A54" s="13"/>
-      <c r="B54" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
+      <c r="B54" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="10"/>
     </row>
     <row r="55">
       <c r="A55" s="13"/>
-      <c r="B55" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="B55" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="10"/>
     </row>
     <row r="56">
       <c r="A56" s="13"/>
-      <c r="B56" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="B56" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="10"/>
     </row>
     <row r="57">
       <c r="A57" s="13"/>
-      <c r="B57" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
+      <c r="B57" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="10"/>
     </row>
     <row r="58">
       <c r="A58" s="13"/>
-      <c r="B58" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
+      <c r="B58" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="10"/>
     </row>
     <row r="59">
       <c r="A59" s="13"/>
-      <c r="B59" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
+      <c r="B59" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="10"/>
     </row>
     <row r="60">
       <c r="A60" s="13"/>
-      <c r="B60" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
+      <c r="B60" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="10"/>
     </row>
     <row r="61">
       <c r="A61" s="13"/>
-      <c r="B61" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
+      <c r="B61" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="10"/>
     </row>
     <row r="62">
       <c r="A62" s="13"/>
-      <c r="B62" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
+      <c r="B62" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="10"/>
     </row>
     <row r="63">
       <c r="A63" s="13"/>
-      <c r="B63" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="B63" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="10"/>
     </row>
     <row r="64">
       <c r="A64" s="13"/>
-      <c r="B64" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
+      <c r="B64" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="13"/>
-      <c r="B65" s="11" t="s">
-        <v>78</v>
+      <c r="A65" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="10"/>
     </row>
     <row r="66">
-      <c r="A66" s="13"/>
-      <c r="B66" s="21" t="s">
-        <v>79</v>
+      <c r="A66" s="16"/>
+      <c r="B66" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="11" t="s">
-        <v>80</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="10"/>
     </row>
     <row r="67">
-      <c r="A67" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="A67" s="16"/>
       <c r="B67" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="10"/>
     </row>
     <row r="68">
       <c r="A68" s="16"/>
-      <c r="B68" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="9"/>
+      <c r="B68" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="10"/>
     </row>
     <row r="69">
       <c r="A69" s="16"/>
       <c r="B69" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="10"/>
     </row>
     <row r="70">
       <c r="A70" s="16"/>
-      <c r="B70" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="9"/>
+      <c r="B70" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="10"/>
     </row>
     <row r="71">
       <c r="A71" s="16"/>
       <c r="B71" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="10"/>
     </row>
     <row r="72">
       <c r="A72" s="16"/>
-      <c r="B72" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="9"/>
+      <c r="B72" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="10"/>
     </row>
     <row r="73">
       <c r="A73" s="16"/>
       <c r="B73" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="9"/>
+        <v>88</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="10"/>
     </row>
     <row r="74">
       <c r="A74" s="16"/>
       <c r="B74" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="9"/>
+        <v>89</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="10"/>
     </row>
     <row r="75">
       <c r="A75" s="16"/>
       <c r="B75" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="10"/>
     </row>
     <row r="76">
       <c r="A76" s="16"/>
       <c r="B76" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="9"/>
+        <v>91</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="10"/>
     </row>
     <row r="77">
       <c r="A77" s="16"/>
       <c r="B77" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="10"/>
     </row>
     <row r="78">
       <c r="A78" s="16"/>
       <c r="B78" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="10"/>
     </row>
     <row r="79">
       <c r="A79" s="16"/>
       <c r="B79" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="10"/>
     </row>
     <row r="80">
       <c r="A80" s="16"/>
       <c r="B80" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="10"/>
     </row>
     <row r="81">
       <c r="A81" s="16"/>
       <c r="B81" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="10"/>
     </row>
     <row r="82">
       <c r="A82" s="16"/>
-      <c r="B82" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="9"/>
+      <c r="B82" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="10"/>
     </row>
     <row r="83">
       <c r="A83" s="16"/>
       <c r="B83" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="9"/>
+        <v>98</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="10"/>
     </row>
     <row r="84">
-      <c r="A84" s="16"/>
-      <c r="B84" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="9"/>
+      <c r="A84" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="10"/>
     </row>
     <row r="85">
       <c r="A85" s="16"/>
-      <c r="B85" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="9"/>
+      <c r="B85" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="10"/>
     </row>
     <row r="86">
       <c r="A86" s="16"/>
       <c r="B86" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="10"/>
     </row>
     <row r="87">
-      <c r="A87" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="9"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="10"/>
     </row>
     <row r="88">
       <c r="A88" s="16"/>
-      <c r="B88" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="9"/>
+      <c r="B88" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="10"/>
     </row>
     <row r="89">
       <c r="A89" s="16"/>
-      <c r="B89" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="9"/>
+      <c r="B89" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="10"/>
     </row>
     <row r="90">
       <c r="A90" s="16"/>
-      <c r="B90" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="9"/>
+      <c r="B90" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="10"/>
     </row>
     <row r="91">
       <c r="A91" s="16"/>
-      <c r="B91" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="9"/>
+      <c r="B91" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="10"/>
     </row>
     <row r="92">
       <c r="A92" s="16"/>
-      <c r="B92" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="9"/>
+      <c r="B92" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="10"/>
     </row>
     <row r="93">
       <c r="A93" s="16"/>
-      <c r="B93" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="22"/>
-      <c r="E93" s="9"/>
+      <c r="B93" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="10"/>
     </row>
     <row r="94">
       <c r="A94" s="16"/>
-      <c r="B94" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="22"/>
-      <c r="E94" s="9"/>
+      <c r="B94" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="10"/>
     </row>
     <row r="95">
       <c r="A95" s="16"/>
-      <c r="B95" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="22"/>
-      <c r="E95" s="9"/>
+      <c r="B95" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="10"/>
     </row>
     <row r="96">
       <c r="A96" s="16"/>
-      <c r="B96" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="22"/>
-      <c r="E96" s="9"/>
+      <c r="B96" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="16"/>
-      <c r="B97" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" s="22"/>
-      <c r="E97" s="9"/>
+      <c r="B97" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="10"/>
     </row>
     <row r="98">
       <c r="A98" s="16"/>
-      <c r="B98" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="22"/>
-      <c r="E98" s="9"/>
+      <c r="B98" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="10"/>
     </row>
     <row r="99">
       <c r="A99" s="16"/>
-      <c r="B99" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="22"/>
-      <c r="E99" s="26" t="s">
-        <v>111</v>
-      </c>
+      <c r="B99" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E99" s="10"/>
     </row>
     <row r="100">
       <c r="A100" s="16"/>
-      <c r="B100" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="22"/>
-      <c r="E100" s="9"/>
+      <c r="B100" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="10"/>
     </row>
     <row r="101">
       <c r="A101" s="16"/>
-      <c r="B101" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="22"/>
-      <c r="E101" s="9"/>
+      <c r="B101" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="10"/>
     </row>
     <row r="102">
-      <c r="A102" s="16"/>
-      <c r="B102" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="22"/>
-      <c r="E102" s="9"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="10"/>
     </row>
     <row r="103">
-      <c r="A103" s="16"/>
+      <c r="A103" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B103" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="22"/>
-      <c r="E103" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="10"/>
     </row>
     <row r="104">
-      <c r="A104" s="16"/>
-      <c r="B104" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D104" s="22"/>
-      <c r="E104" s="9"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="10"/>
     </row>
     <row r="105">
-      <c r="A105" s="16"/>
+      <c r="A105" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="B105" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="22"/>
-      <c r="E105" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="10"/>
     </row>
     <row r="106">
-      <c r="A106" s="6" t="s">
-        <v>118</v>
-      </c>
+      <c r="A106" s="16"/>
       <c r="B106" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E106" s="10"/>
     </row>
     <row r="107">
       <c r="A107" s="16"/>
       <c r="B107" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
+        <v>124</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="10"/>
     </row>
     <row r="108">
       <c r="A108" s="19"/>
-      <c r="B108" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
+      <c r="B108" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="10"/>
     </row>
     <row r="109">
       <c r="A109" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
+        <v>127</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="10"/>
     </row>
     <row r="110">
       <c r="A110" s="16"/>
       <c r="B110" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="10"/>
     </row>
     <row r="111">
       <c r="A111" s="16"/>
       <c r="B111" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="10"/>
     </row>
     <row r="112">
-      <c r="A112" s="19"/>
+      <c r="A112" s="16"/>
       <c r="B112" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
+        <v>130</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="10"/>
     </row>
     <row r="113">
-      <c r="A113" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="A113" s="16"/>
       <c r="B113" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="10"/>
     </row>
     <row r="114">
       <c r="A114" s="16"/>
       <c r="B114" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
+        <v>132</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="10"/>
     </row>
     <row r="115">
       <c r="A115" s="16"/>
       <c r="B115" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
+        <v>133</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="10"/>
     </row>
     <row r="116">
       <c r="A116" s="16"/>
       <c r="B116" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="10"/>
     </row>
     <row r="117">
       <c r="A117" s="16"/>
       <c r="B117" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
+        <v>135</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="10"/>
     </row>
     <row r="118">
-      <c r="A118" s="16"/>
+      <c r="A118" s="19"/>
       <c r="B118" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="10"/>
     </row>
     <row r="119">
-      <c r="A119" s="16"/>
-      <c r="B119" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
+      <c r="A119" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="10"/>
     </row>
     <row r="120">
       <c r="A120" s="16"/>
-      <c r="B120" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
+      <c r="B120" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="10"/>
     </row>
     <row r="121">
       <c r="A121" s="16"/>
-      <c r="B121" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
+      <c r="B121" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="10"/>
     </row>
     <row r="122">
-      <c r="A122" s="19"/>
-      <c r="B122" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
+      <c r="A122" s="16"/>
+      <c r="B122" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="10"/>
     </row>
     <row r="123">
-      <c r="A123" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
+      <c r="A123" s="16"/>
+      <c r="B123" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="10"/>
     </row>
     <row r="124">
       <c r="A124" s="16"/>
-      <c r="B124" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C124" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
+      <c r="B124" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="10"/>
     </row>
     <row r="125">
       <c r="A125" s="16"/>
-      <c r="B125" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C125" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
+      <c r="B125" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="10"/>
     </row>
     <row r="126">
       <c r="A126" s="16"/>
-      <c r="B126" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C126" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
+      <c r="B126" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="10"/>
     </row>
     <row r="127">
       <c r="A127" s="16"/>
-      <c r="B127" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
+      <c r="B127" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="10"/>
     </row>
     <row r="128">
       <c r="A128" s="16"/>
-      <c r="B128" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
+      <c r="B128" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="10"/>
     </row>
     <row r="129">
       <c r="A129" s="16"/>
-      <c r="B129" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C129" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
+      <c r="B129" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="10"/>
     </row>
     <row r="130">
       <c r="A130" s="16"/>
-      <c r="B130" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C130" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
+      <c r="B130" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="10"/>
     </row>
     <row r="131">
       <c r="A131" s="16"/>
-      <c r="B131" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C131" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
+      <c r="B131" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="10"/>
     </row>
     <row r="132">
       <c r="A132" s="16"/>
-      <c r="B132" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C132" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
+      <c r="B132" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="10"/>
     </row>
     <row r="133">
       <c r="A133" s="16"/>
-      <c r="B133" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="C133" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
+      <c r="B133" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="10"/>
     </row>
     <row r="134">
-      <c r="A134" s="16"/>
+      <c r="A134" s="19"/>
       <c r="B134" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C134" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
+        <v>153</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="10"/>
     </row>
     <row r="135">
-      <c r="A135" s="16"/>
-      <c r="B135" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C135" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
+      <c r="A135" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="10"/>
     </row>
     <row r="136">
       <c r="A136" s="16"/>
       <c r="B136" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C136" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="10"/>
     </row>
     <row r="137">
       <c r="A137" s="16"/>
       <c r="B137" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C137" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
+        <v>156</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="10"/>
     </row>
     <row r="138">
-      <c r="A138" s="19"/>
+      <c r="A138" s="16"/>
       <c r="B138" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="10"/>
     </row>
     <row r="139">
-      <c r="A139" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
+      <c r="A139" s="16"/>
+      <c r="B139" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="10"/>
     </row>
     <row r="140">
       <c r="A140" s="16"/>
-      <c r="B140" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
+      <c r="B140" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="10"/>
     </row>
     <row r="141">
       <c r="A141" s="16"/>
-      <c r="B141" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
+      <c r="B141" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="10"/>
     </row>
     <row r="142">
       <c r="A142" s="16"/>
       <c r="B142" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
+        <v>161</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="10"/>
     </row>
     <row r="143">
       <c r="A143" s="16"/>
-      <c r="B143" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
+      <c r="B143" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="10"/>
     </row>
     <row r="144">
       <c r="A144" s="16"/>
-      <c r="B144" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
+      <c r="B144" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="10"/>
     </row>
     <row r="145">
       <c r="A145" s="16"/>
-      <c r="B145" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
+      <c r="B145" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="10"/>
     </row>
     <row r="146">
       <c r="A146" s="16"/>
       <c r="B146" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
+        <v>108</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="10"/>
     </row>
     <row r="147">
       <c r="A147" s="16"/>
-      <c r="B147" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
+      <c r="B147" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="10"/>
     </row>
     <row r="148">
       <c r="A148" s="16"/>
-      <c r="B148" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
+      <c r="B148" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="10"/>
     </row>
     <row r="149">
       <c r="A149" s="16"/>
       <c r="B149" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
+        <v>164</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="10"/>
     </row>
     <row r="150">
       <c r="A150" s="16"/>
       <c r="B150" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
+        <v>165</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E150" s="10"/>
     </row>
     <row r="151">
       <c r="A151" s="16"/>
       <c r="B151" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
+        <v>166</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="10"/>
     </row>
     <row r="152">
       <c r="A152" s="16"/>
-      <c r="B152" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
+      <c r="B152" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="10"/>
     </row>
     <row r="153">
-      <c r="A153" s="16"/>
+      <c r="A153" s="19"/>
       <c r="B153" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
+        <v>168</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="10"/>
     </row>
     <row r="154">
-      <c r="A154" s="16"/>
-      <c r="B154" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
+      <c r="A154" s="27"/>
+      <c r="B154" s="27"/>
     </row>
     <row r="155">
-      <c r="A155" s="16"/>
-      <c r="B155" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
+      <c r="A155" s="27"/>
+      <c r="B155" s="27"/>
     </row>
     <row r="156">
-      <c r="A156" s="16"/>
-      <c r="B156" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
+      <c r="A156" s="27"/>
+      <c r="B156" s="27"/>
     </row>
     <row r="157">
-      <c r="A157" s="19"/>
-      <c r="B157" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
+      <c r="A157" s="27"/>
+      <c r="B157" s="27"/>
     </row>
     <row r="158">
-      <c r="A158" s="31"/>
-      <c r="B158" s="31"/>
+      <c r="A158" s="27"/>
+      <c r="B158" s="27"/>
     </row>
     <row r="159">
-      <c r="A159" s="31"/>
-      <c r="B159" s="31"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="31"/>
-      <c r="B160" s="31"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="31"/>
-      <c r="B161" s="31"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="31"/>
-      <c r="B162" s="31"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="31"/>
-      <c r="B163" s="31"/>
+      <c r="A159" s="27"/>
+      <c r="B159" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A123:A138"/>
-    <mergeCell ref="A139:A157"/>
-    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A119:A134"/>
+    <mergeCell ref="A135:A153"/>
+    <mergeCell ref="A109:A118"/>
+    <mergeCell ref="A103:A104"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A17"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="A47:A66"/>
-    <mergeCell ref="A67:A86"/>
-    <mergeCell ref="A87:A105"/>
-    <mergeCell ref="A18:A38"/>
+    <mergeCell ref="A45:A64"/>
+    <mergeCell ref="A84:A102"/>
+    <mergeCell ref="A17:A37"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A65:A83"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
